--- a/src/main/java/com/caax/testData/data.xlsx
+++ b/src/main/java/com/caax/testData/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="150" windowWidth="10455" windowHeight="7440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>first name</t>
   </si>
@@ -27,13 +27,22 @@
     <t>Job title</t>
   </si>
   <si>
-    <t>pradip</t>
-  </si>
-  <si>
-    <t>yogi</t>
-  </si>
-  <si>
-    <t>Automation Testing</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>bayside</t>
+  </si>
+  <si>
+    <t>wholesale</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
 </sst>
 </file>
@@ -365,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,6 +402,17 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
